--- a/PWRAutomatedTest/PWR_Board_TestReportTemplate2.xlsx
+++ b/PWRAutomatedTest/PWR_Board_TestReportTemplate2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erik\git\pluto\PWRAutomatedTest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F1A6571-58C2-44D3-8BDB-98D7F21167DD}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19F4C470-EE20-404C-962D-A200B9C5A917}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19320" yWindow="720" windowWidth="19440" windowHeight="15600" firstSheet="2" activeTab="6" xr2:uid="{4A8DB9E0-1329-4CE1-A68A-3922F0D4E040}"/>
+    <workbookView xWindow="-19320" yWindow="720" windowWidth="19440" windowHeight="15600" xr2:uid="{4A8DB9E0-1329-4CE1-A68A-3922F0D4E040}"/>
   </bookViews>
   <sheets>
     <sheet name="Report" sheetId="1" r:id="rId1"/>
@@ -601,9 +601,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CA788C9-474B-4068-A04A-775EAB4B4CD4}">
   <dimension ref="A1:J97"/>
   <sheetViews>
-    <sheetView zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L84" sqref="L84"/>
+    <sheetView tabSelected="1" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A84" sqref="A84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -649,7 +649,7 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>27</v>
@@ -676,7 +676,7 @@
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
         <f>1+A2</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>28</v>
@@ -703,7 +703,7 @@
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4">
         <f t="shared" ref="A4:A15" si="2">1+A3</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>29</v>
@@ -730,7 +730,7 @@
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
         <v>37</v>
@@ -757,7 +757,7 @@
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
         <v>39</v>
@@ -784,7 +784,7 @@
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
         <v>40</v>
@@ -811,7 +811,7 @@
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B8" t="s">
         <v>42</v>
@@ -838,7 +838,7 @@
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
         <v>41</v>
@@ -865,7 +865,7 @@
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
         <v>10</v>
@@ -891,7 +891,7 @@
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B11" t="s">
         <v>11</v>
@@ -917,7 +917,7 @@
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B12" t="s">
         <v>12</v>
@@ -943,7 +943,7 @@
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B13" t="s">
         <v>13</v>
@@ -969,7 +969,7 @@
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B14" t="s">
         <v>14</v>
@@ -995,7 +995,7 @@
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B15" t="s">
         <v>15</v>
@@ -1020,7 +1020,7 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>14.01</v>
+        <v>15.01</v>
       </c>
       <c r="B16" t="s">
         <v>59</v>
@@ -1050,7 +1050,7 @@
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <f>A16+0.01</f>
-        <v>14.02</v>
+        <v>15.02</v>
       </c>
       <c r="B17" t="s">
         <v>59</v>
@@ -1080,7 +1080,7 @@
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <f t="shared" ref="A18:A29" si="4">A17+0.01</f>
-        <v>14.03</v>
+        <v>15.03</v>
       </c>
       <c r="B18" t="s">
         <v>59</v>
@@ -1110,7 +1110,7 @@
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <f t="shared" si="4"/>
-        <v>14.04</v>
+        <v>15.04</v>
       </c>
       <c r="B19" t="s">
         <v>59</v>
@@ -1140,7 +1140,7 @@
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <f t="shared" si="4"/>
-        <v>14.049999999999999</v>
+        <v>15.049999999999999</v>
       </c>
       <c r="B20" t="s">
         <v>59</v>
@@ -1170,7 +1170,7 @@
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <f t="shared" si="4"/>
-        <v>14.059999999999999</v>
+        <v>15.059999999999999</v>
       </c>
       <c r="B21" t="s">
         <v>59</v>
@@ -1200,7 +1200,7 @@
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <f t="shared" si="4"/>
-        <v>14.069999999999999</v>
+        <v>15.069999999999999</v>
       </c>
       <c r="B22" t="s">
         <v>59</v>
@@ -1230,7 +1230,7 @@
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <f t="shared" si="4"/>
-        <v>14.079999999999998</v>
+        <v>15.079999999999998</v>
       </c>
       <c r="B23" t="s">
         <v>59</v>
@@ -1260,7 +1260,7 @@
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <f t="shared" si="4"/>
-        <v>14.089999999999998</v>
+        <v>15.089999999999998</v>
       </c>
       <c r="B24" t="s">
         <v>59</v>
@@ -1290,7 +1290,7 @@
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <f t="shared" si="4"/>
-        <v>14.099999999999998</v>
+        <v>15.099999999999998</v>
       </c>
       <c r="B25" t="s">
         <v>59</v>
@@ -1320,7 +1320,7 @@
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <f t="shared" si="4"/>
-        <v>14.109999999999998</v>
+        <v>15.109999999999998</v>
       </c>
       <c r="B26" t="s">
         <v>59</v>
@@ -1350,7 +1350,7 @@
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <f>A26+0.01</f>
-        <v>14.119999999999997</v>
+        <v>15.119999999999997</v>
       </c>
       <c r="B27" t="s">
         <v>59</v>
@@ -1380,7 +1380,7 @@
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <f t="shared" si="4"/>
-        <v>14.129999999999997</v>
+        <v>15.129999999999997</v>
       </c>
       <c r="B28" t="s">
         <v>59</v>
@@ -1410,7 +1410,7 @@
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <f t="shared" si="4"/>
-        <v>14.139999999999997</v>
+        <v>15.139999999999997</v>
       </c>
       <c r="B29" t="s">
         <v>59</v>
@@ -1439,7 +1439,7 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
-        <v>15.01</v>
+        <v>16.010000000000002</v>
       </c>
       <c r="B30" t="s">
         <v>60</v>
@@ -1469,7 +1469,7 @@
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <f>A30+0.01</f>
-        <v>15.02</v>
+        <v>16.020000000000003</v>
       </c>
       <c r="B31" t="s">
         <v>60</v>
@@ -1499,7 +1499,7 @@
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <f>A31+0.01</f>
-        <v>15.03</v>
+        <v>16.030000000000005</v>
       </c>
       <c r="B32" t="s">
         <v>60</v>
@@ -1528,7 +1528,7 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
-        <v>16.010000000000002</v>
+        <v>17.010000000000002</v>
       </c>
       <c r="B33" t="s">
         <v>61</v>
@@ -1558,7 +1558,7 @@
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <f>A33+0.01</f>
-        <v>16.020000000000003</v>
+        <v>17.020000000000003</v>
       </c>
       <c r="B34" t="s">
         <v>61</v>
@@ -1588,7 +1588,7 @@
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <f t="shared" ref="A35:A46" si="5">A34+0.01</f>
-        <v>16.030000000000005</v>
+        <v>17.030000000000005</v>
       </c>
       <c r="B35" t="s">
         <v>61</v>
@@ -1618,7 +1618,7 @@
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <f t="shared" si="5"/>
-        <v>16.040000000000006</v>
+        <v>17.040000000000006</v>
       </c>
       <c r="B36" t="s">
         <v>61</v>
@@ -1648,7 +1648,7 @@
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <f t="shared" si="5"/>
-        <v>16.050000000000008</v>
+        <v>17.050000000000008</v>
       </c>
       <c r="B37" t="s">
         <v>61</v>
@@ -1678,7 +1678,7 @@
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <f t="shared" si="5"/>
-        <v>16.060000000000009</v>
+        <v>17.060000000000009</v>
       </c>
       <c r="B38" t="s">
         <v>61</v>
@@ -1708,7 +1708,7 @@
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <f t="shared" si="5"/>
-        <v>16.070000000000011</v>
+        <v>17.070000000000011</v>
       </c>
       <c r="B39" t="s">
         <v>61</v>
@@ -1738,7 +1738,7 @@
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <f t="shared" si="5"/>
-        <v>16.080000000000013</v>
+        <v>17.080000000000013</v>
       </c>
       <c r="B40" t="s">
         <v>61</v>
@@ -1768,7 +1768,7 @@
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <f t="shared" si="5"/>
-        <v>16.090000000000014</v>
+        <v>17.090000000000014</v>
       </c>
       <c r="B41" t="s">
         <v>61</v>
@@ -1798,7 +1798,7 @@
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <f t="shared" si="5"/>
-        <v>16.100000000000016</v>
+        <v>17.100000000000016</v>
       </c>
       <c r="B42" t="s">
         <v>61</v>
@@ -1828,7 +1828,7 @@
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <f t="shared" si="5"/>
-        <v>16.110000000000017</v>
+        <v>17.110000000000017</v>
       </c>
       <c r="B43" t="s">
         <v>61</v>
@@ -1858,7 +1858,7 @@
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <f t="shared" si="5"/>
-        <v>16.120000000000019</v>
+        <v>17.120000000000019</v>
       </c>
       <c r="B44" t="s">
         <v>61</v>
@@ -1888,7 +1888,7 @@
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <f t="shared" si="5"/>
-        <v>16.13000000000002</v>
+        <v>17.13000000000002</v>
       </c>
       <c r="B45" t="s">
         <v>61</v>
@@ -1918,7 +1918,7 @@
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <f t="shared" si="5"/>
-        <v>16.140000000000022</v>
+        <v>17.140000000000022</v>
       </c>
       <c r="B46" t="s">
         <v>61</v>
@@ -1947,7 +1947,7 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>17.010000000000002</v>
+        <v>18.010000000000002</v>
       </c>
       <c r="B47" t="s">
         <v>64</v>
@@ -1977,7 +1977,7 @@
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <f>A47+0.01</f>
-        <v>17.020000000000003</v>
+        <v>18.020000000000003</v>
       </c>
       <c r="B48" t="s">
         <v>64</v>
@@ -2006,7 +2006,7 @@
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <f t="shared" ref="A49:A61" si="6">A48+0.01</f>
-        <v>17.030000000000005</v>
+        <v>18.030000000000005</v>
       </c>
       <c r="B49" t="s">
         <v>64</v>
@@ -2035,7 +2035,7 @@
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <f t="shared" si="6"/>
-        <v>17.040000000000006</v>
+        <v>18.040000000000006</v>
       </c>
       <c r="B50" t="s">
         <v>64</v>
@@ -2064,7 +2064,7 @@
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <f t="shared" si="6"/>
-        <v>17.050000000000008</v>
+        <v>18.050000000000008</v>
       </c>
       <c r="B51" t="s">
         <v>64</v>
@@ -2093,7 +2093,7 @@
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <f t="shared" si="6"/>
-        <v>17.060000000000009</v>
+        <v>18.060000000000009</v>
       </c>
       <c r="B52" t="s">
         <v>64</v>
@@ -2122,7 +2122,7 @@
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <f t="shared" si="6"/>
-        <v>17.070000000000011</v>
+        <v>18.070000000000011</v>
       </c>
       <c r="B53" t="s">
         <v>64</v>
@@ -2151,7 +2151,7 @@
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <f t="shared" si="6"/>
-        <v>17.080000000000013</v>
+        <v>18.080000000000013</v>
       </c>
       <c r="B54" t="s">
         <v>64</v>
@@ -2180,7 +2180,7 @@
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <f t="shared" si="6"/>
-        <v>17.090000000000014</v>
+        <v>18.090000000000014</v>
       </c>
       <c r="B55" t="s">
         <v>64</v>
@@ -2209,7 +2209,7 @@
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <f t="shared" si="6"/>
-        <v>17.100000000000016</v>
+        <v>18.100000000000016</v>
       </c>
       <c r="B56" t="s">
         <v>64</v>
@@ -2238,7 +2238,7 @@
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <f t="shared" si="6"/>
-        <v>17.110000000000017</v>
+        <v>18.110000000000017</v>
       </c>
       <c r="B57" t="s">
         <v>64</v>
@@ -2267,7 +2267,7 @@
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <f t="shared" si="6"/>
-        <v>17.120000000000019</v>
+        <v>18.120000000000019</v>
       </c>
       <c r="B58" t="s">
         <v>64</v>
@@ -2296,7 +2296,7 @@
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <f t="shared" si="6"/>
-        <v>17.13000000000002</v>
+        <v>18.13000000000002</v>
       </c>
       <c r="B59" t="s">
         <v>64</v>
@@ -2325,7 +2325,7 @@
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <f t="shared" si="6"/>
-        <v>17.140000000000022</v>
+        <v>18.140000000000022</v>
       </c>
       <c r="B60" t="s">
         <v>64</v>
@@ -2354,7 +2354,7 @@
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <f t="shared" si="6"/>
-        <v>17.150000000000023</v>
+        <v>18.150000000000023</v>
       </c>
       <c r="B61" t="s">
         <v>64</v>
@@ -2382,7 +2382,7 @@
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>18.010000000000002</v>
+        <v>19.010000000000002</v>
       </c>
       <c r="B62" t="s">
         <v>59</v>
@@ -2411,7 +2411,7 @@
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <f>A62+0.01</f>
-        <v>18.020000000000003</v>
+        <v>19.020000000000003</v>
       </c>
       <c r="B63" t="s">
         <v>59</v>
@@ -2440,7 +2440,7 @@
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <f t="shared" ref="A64:A75" si="7">A63+0.01</f>
-        <v>18.030000000000005</v>
+        <v>19.030000000000005</v>
       </c>
       <c r="B64" t="s">
         <v>59</v>
@@ -2469,7 +2469,7 @@
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <f t="shared" si="7"/>
-        <v>18.040000000000006</v>
+        <v>19.040000000000006</v>
       </c>
       <c r="B65" t="s">
         <v>59</v>
@@ -2498,7 +2498,7 @@
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <f t="shared" si="7"/>
-        <v>18.050000000000008</v>
+        <v>19.050000000000008</v>
       </c>
       <c r="B66" t="s">
         <v>59</v>
@@ -2527,7 +2527,7 @@
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <f t="shared" si="7"/>
-        <v>18.060000000000009</v>
+        <v>19.060000000000009</v>
       </c>
       <c r="B67" t="s">
         <v>59</v>
@@ -2556,7 +2556,7 @@
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <f t="shared" si="7"/>
-        <v>18.070000000000011</v>
+        <v>19.070000000000011</v>
       </c>
       <c r="B68" t="s">
         <v>59</v>
@@ -2585,7 +2585,7 @@
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <f t="shared" si="7"/>
-        <v>18.080000000000013</v>
+        <v>19.080000000000013</v>
       </c>
       <c r="B69" t="s">
         <v>59</v>
@@ -2614,7 +2614,7 @@
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <f t="shared" si="7"/>
-        <v>18.090000000000014</v>
+        <v>19.090000000000014</v>
       </c>
       <c r="B70" t="s">
         <v>59</v>
@@ -2643,7 +2643,7 @@
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <f t="shared" si="7"/>
-        <v>18.100000000000016</v>
+        <v>19.100000000000016</v>
       </c>
       <c r="B71" t="s">
         <v>59</v>
@@ -2672,7 +2672,7 @@
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <f t="shared" si="7"/>
-        <v>18.110000000000017</v>
+        <v>19.110000000000017</v>
       </c>
       <c r="B72" t="s">
         <v>59</v>
@@ -2701,7 +2701,7 @@
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <f t="shared" si="7"/>
-        <v>18.120000000000019</v>
+        <v>19.120000000000019</v>
       </c>
       <c r="B73" t="s">
         <v>59</v>
@@ -2730,7 +2730,7 @@
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <f t="shared" si="7"/>
-        <v>18.13000000000002</v>
+        <v>19.13000000000002</v>
       </c>
       <c r="B74" t="s">
         <v>59</v>
@@ -2759,7 +2759,7 @@
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <f t="shared" si="7"/>
-        <v>18.140000000000022</v>
+        <v>19.140000000000022</v>
       </c>
       <c r="B75" t="s">
         <v>59</v>
@@ -2787,7 +2787,7 @@
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>19.010000000000002</v>
+        <v>20.010000000000002</v>
       </c>
       <c r="B76" t="s">
         <v>65</v>
@@ -2816,7 +2816,7 @@
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <f>A76+0.01</f>
-        <v>19.020000000000003</v>
+        <v>20.020000000000003</v>
       </c>
       <c r="B77" t="s">
         <v>65</v>
@@ -2845,7 +2845,7 @@
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <f t="shared" ref="A78:A82" si="8">A77+0.01</f>
-        <v>19.030000000000005</v>
+        <v>20.030000000000005</v>
       </c>
       <c r="B78" t="s">
         <v>65</v>
@@ -2874,7 +2874,7 @@
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <f t="shared" si="8"/>
-        <v>19.040000000000006</v>
+        <v>20.040000000000006</v>
       </c>
       <c r="B79" t="s">
         <v>65</v>
@@ -2903,7 +2903,7 @@
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <f t="shared" si="8"/>
-        <v>19.050000000000008</v>
+        <v>20.050000000000008</v>
       </c>
       <c r="B80" t="s">
         <v>65</v>
@@ -2932,7 +2932,7 @@
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <f t="shared" si="8"/>
-        <v>19.060000000000009</v>
+        <v>20.060000000000009</v>
       </c>
       <c r="B81" t="s">
         <v>65</v>
@@ -2961,7 +2961,7 @@
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <f t="shared" si="8"/>
-        <v>19.070000000000011</v>
+        <v>20.070000000000011</v>
       </c>
       <c r="B82" t="s">
         <v>65</v>
@@ -2989,7 +2989,7 @@
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83">
-        <v>20.010000000000002</v>
+        <v>21.01</v>
       </c>
       <c r="B83" t="s">
         <v>64</v>
@@ -3018,7 +3018,7 @@
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <f>A83+0.01</f>
-        <v>20.020000000000003</v>
+        <v>21.020000000000003</v>
       </c>
       <c r="B84" t="s">
         <v>64</v>
@@ -3047,7 +3047,7 @@
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <f t="shared" ref="A85:A97" si="9">A84+0.01</f>
-        <v>20.030000000000005</v>
+        <v>21.030000000000005</v>
       </c>
       <c r="B85" t="s">
         <v>64</v>
@@ -3076,7 +3076,7 @@
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <f t="shared" si="9"/>
-        <v>20.040000000000006</v>
+        <v>21.040000000000006</v>
       </c>
       <c r="B86" t="s">
         <v>64</v>
@@ -3105,7 +3105,7 @@
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <f t="shared" si="9"/>
-        <v>20.050000000000008</v>
+        <v>21.050000000000008</v>
       </c>
       <c r="B87" t="s">
         <v>64</v>
@@ -3134,7 +3134,7 @@
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <f t="shared" si="9"/>
-        <v>20.060000000000009</v>
+        <v>21.060000000000009</v>
       </c>
       <c r="B88" t="s">
         <v>64</v>
@@ -3163,7 +3163,7 @@
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <f t="shared" si="9"/>
-        <v>20.070000000000011</v>
+        <v>21.070000000000011</v>
       </c>
       <c r="B89" t="s">
         <v>64</v>
@@ -3192,7 +3192,7 @@
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <f t="shared" si="9"/>
-        <v>20.080000000000013</v>
+        <v>21.080000000000013</v>
       </c>
       <c r="B90" t="s">
         <v>64</v>
@@ -3221,7 +3221,7 @@
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <f t="shared" si="9"/>
-        <v>20.090000000000014</v>
+        <v>21.090000000000014</v>
       </c>
       <c r="B91" t="s">
         <v>64</v>
@@ -3250,7 +3250,7 @@
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <f t="shared" si="9"/>
-        <v>20.100000000000016</v>
+        <v>21.100000000000016</v>
       </c>
       <c r="B92" t="s">
         <v>64</v>
@@ -3279,7 +3279,7 @@
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <f t="shared" si="9"/>
-        <v>20.110000000000017</v>
+        <v>21.110000000000017</v>
       </c>
       <c r="B93" t="s">
         <v>64</v>
@@ -3308,7 +3308,7 @@
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <f t="shared" si="9"/>
-        <v>20.120000000000019</v>
+        <v>21.120000000000019</v>
       </c>
       <c r="B94" t="s">
         <v>64</v>
@@ -3337,7 +3337,7 @@
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <f t="shared" si="9"/>
-        <v>20.13000000000002</v>
+        <v>21.13000000000002</v>
       </c>
       <c r="B95" t="s">
         <v>64</v>
@@ -3366,7 +3366,7 @@
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <f t="shared" si="9"/>
-        <v>20.140000000000022</v>
+        <v>21.140000000000022</v>
       </c>
       <c r="B96" t="s">
         <v>64</v>
@@ -3395,7 +3395,7 @@
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <f t="shared" si="9"/>
-        <v>20.150000000000023</v>
+        <v>21.150000000000023</v>
       </c>
       <c r="B97" t="s">
         <v>64</v>
@@ -4503,7 +4503,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32CEAD3C-E293-403D-9957-624DD4ECBBD6}">
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>

--- a/PWRAutomatedTest/PWR_Board_TestReportTemplate2.xlsx
+++ b/PWRAutomatedTest/PWR_Board_TestReportTemplate2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erik\git\pluto\PWRAutomatedTest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19F4C470-EE20-404C-962D-A200B9C5A917}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{031B8537-4A43-4189-BFE1-8D03316F4E2B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19320" yWindow="720" windowWidth="19440" windowHeight="15600" xr2:uid="{4A8DB9E0-1329-4CE1-A68A-3922F0D4E040}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{4A8DB9E0-1329-4CE1-A68A-3922F0D4E040}"/>
   </bookViews>
   <sheets>
     <sheet name="Report" sheetId="1" r:id="rId1"/>
@@ -273,16 +273,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -602,8 +599,8 @@
   <dimension ref="A1:J97"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A84" sqref="A84"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K71" sqref="K71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -654,7 +651,7 @@
       <c r="B2" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>26</v>
       </c>
       <c r="D2" s="2">
@@ -681,7 +678,7 @@
       <c r="B3" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>30</v>
       </c>
       <c r="D3" s="2">
@@ -708,7 +705,7 @@
       <c r="B4" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="3" t="s">
         <v>31</v>
       </c>
       <c r="D4" s="2">
@@ -735,7 +732,7 @@
       <c r="B5" t="s">
         <v>37</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="3" t="s">
         <v>32</v>
       </c>
       <c r="D5" s="2">
@@ -762,7 +759,7 @@
       <c r="B6" t="s">
         <v>39</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="3" t="s">
         <v>33</v>
       </c>
       <c r="D6" s="2">
@@ -789,7 +786,7 @@
       <c r="B7" t="s">
         <v>40</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="3" t="s">
         <v>34</v>
       </c>
       <c r="D7" s="2">
@@ -816,7 +813,7 @@
       <c r="B8" t="s">
         <v>42</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="3" t="s">
         <v>35</v>
       </c>
       <c r="D8" s="2">
@@ -843,7 +840,7 @@
       <c r="B9" t="s">
         <v>41</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="3" t="s">
         <v>36</v>
       </c>
       <c r="D9" s="2">
@@ -870,7 +867,7 @@
       <c r="B10" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="3" t="s">
         <v>19</v>
       </c>
       <c r="D10" s="3">
@@ -896,7 +893,7 @@
       <c r="B11" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="3" t="s">
         <v>20</v>
       </c>
       <c r="D11" s="3">
@@ -922,7 +919,7 @@
       <c r="B12" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="3" t="s">
         <v>21</v>
       </c>
       <c r="D12" s="3">
@@ -948,7 +945,7 @@
       <c r="B13" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="3" t="s">
         <v>22</v>
       </c>
       <c r="D13" s="3">
@@ -974,7 +971,7 @@
       <c r="B14" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D14" s="3">
@@ -1000,7 +997,7 @@
       <c r="B15" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="3" t="s">
         <v>24</v>
       </c>
       <c r="D15" s="3">
@@ -1031,7 +1028,7 @@
       </c>
       <c r="D16" s="3">
         <f>NoPowerState!B2</f>
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="E16" s="3">
         <f>NoPowerState!C2</f>
@@ -1061,7 +1058,7 @@
       </c>
       <c r="D17" s="3">
         <f>NoPowerState!B3</f>
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="E17" s="3">
         <f>NoPowerState!C3</f>
@@ -1091,7 +1088,7 @@
       </c>
       <c r="D18" s="3">
         <f>NoPowerState!B4</f>
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="E18" s="3">
         <f>NoPowerState!C4</f>
@@ -1121,7 +1118,7 @@
       </c>
       <c r="D19" s="3">
         <f>NoPowerState!B5</f>
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="E19" s="3">
         <f>NoPowerState!C5</f>
@@ -1151,7 +1148,7 @@
       </c>
       <c r="D20" s="3">
         <f>NoPowerState!B6</f>
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="E20" s="3">
         <f>NoPowerState!C6</f>
@@ -1181,7 +1178,7 @@
       </c>
       <c r="D21" s="3">
         <f>NoPowerState!B7</f>
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="E21" s="3">
         <f>NoPowerState!C7</f>
@@ -1211,7 +1208,7 @@
       </c>
       <c r="D22" s="3">
         <f>NoPowerState!B8</f>
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="E22" s="3">
         <f>NoPowerState!C8</f>
@@ -1241,7 +1238,7 @@
       </c>
       <c r="D23" s="3">
         <f>NoPowerState!B9</f>
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="E23" s="3">
         <f>NoPowerState!C9</f>
@@ -1271,7 +1268,7 @@
       </c>
       <c r="D24" s="3">
         <f>NoPowerState!B10</f>
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="E24" s="3">
         <f>NoPowerState!C10</f>
@@ -1301,7 +1298,7 @@
       </c>
       <c r="D25" s="3">
         <f>NoPowerState!B11</f>
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="E25" s="3">
         <f>NoPowerState!C11</f>
@@ -1331,7 +1328,7 @@
       </c>
       <c r="D26" s="3">
         <f>NoPowerState!B12</f>
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="E26" s="3">
         <f>NoPowerState!C12</f>
@@ -1361,7 +1358,7 @@
       </c>
       <c r="D27" s="3">
         <f>NoPowerState!B13</f>
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="E27" s="3">
         <f>NoPowerState!C13</f>
@@ -1391,7 +1388,7 @@
       </c>
       <c r="D28" s="3">
         <f>NoPowerState!B14</f>
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="E28" s="3">
         <f>NoPowerState!C14</f>
@@ -1421,7 +1418,7 @@
       </c>
       <c r="D29" s="3">
         <f>NoPowerState!B15</f>
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="E29" s="3">
         <f>NoPowerState!C15</f>
@@ -1952,19 +1949,19 @@
       <c r="B47" t="s">
         <v>64</v>
       </c>
-      <c r="C47" s="4" t="str">
+      <c r="C47" s="3" t="str">
         <f>SPMState!A2</f>
         <v>PSUA</v>
       </c>
-      <c r="D47" s="4">
+      <c r="D47" s="3">
         <f>SPMState!B2</f>
         <v>0</v>
       </c>
-      <c r="E47" s="4">
+      <c r="E47" s="3">
         <f>SPMState!C2</f>
         <v>0.5</v>
       </c>
-      <c r="F47" s="4">
+      <c r="F47" s="3">
         <f>SPMState!D2</f>
         <v>0</v>
       </c>
@@ -1982,19 +1979,19 @@
       <c r="B48" t="s">
         <v>64</v>
       </c>
-      <c r="C48" s="4" t="str">
+      <c r="C48" s="3" t="str">
         <f>SPMState!A3</f>
         <v>PSUB</v>
       </c>
-      <c r="D48" s="4">
+      <c r="D48" s="3">
         <f>SPMState!B3</f>
         <v>23</v>
       </c>
-      <c r="E48" s="4">
+      <c r="E48" s="3">
         <f>SPMState!C3</f>
         <v>25</v>
       </c>
-      <c r="F48" s="4">
+      <c r="F48" s="3">
         <f>SPMState!D3</f>
         <v>24</v>
       </c>
@@ -2011,19 +2008,19 @@
       <c r="B49" t="s">
         <v>64</v>
       </c>
-      <c r="C49" s="4" t="str">
+      <c r="C49" s="3" t="str">
         <f>SPMState!A4</f>
         <v>PSUC</v>
       </c>
-      <c r="D49" s="4">
+      <c r="D49" s="3">
         <f>SPMState!B4</f>
         <v>0</v>
       </c>
-      <c r="E49" s="4">
+      <c r="E49" s="3">
         <f>SPMState!C4</f>
         <v>0.5</v>
       </c>
-      <c r="F49" s="4">
+      <c r="F49" s="3">
         <f>SPMState!D4</f>
         <v>0</v>
       </c>
@@ -2040,19 +2037,19 @@
       <c r="B50" t="s">
         <v>64</v>
       </c>
-      <c r="C50" s="4" t="str">
+      <c r="C50" s="3" t="str">
         <f>SPMState!A5</f>
         <v>24Vout</v>
       </c>
-      <c r="D50" s="4">
+      <c r="D50" s="3">
         <f>SPMState!B5</f>
         <v>23</v>
       </c>
-      <c r="E50" s="4">
+      <c r="E50" s="3">
         <f>SPMState!C5</f>
         <v>25</v>
       </c>
-      <c r="F50" s="4">
+      <c r="F50" s="3">
         <f>SPMState!D5</f>
         <v>24</v>
       </c>
@@ -2069,19 +2066,19 @@
       <c r="B51" t="s">
         <v>64</v>
       </c>
-      <c r="C51" s="4" t="str">
+      <c r="C51" s="3" t="str">
         <f>SPMState!A6</f>
         <v>FLT_OUT</v>
       </c>
-      <c r="D51" s="4">
+      <c r="D51" s="3">
         <f>SPMState!B6</f>
         <v>4.9000000000000004</v>
       </c>
-      <c r="E51" s="4">
+      <c r="E51" s="3">
         <f>SPMState!C6</f>
         <v>5.0999999999999996</v>
       </c>
-      <c r="F51" s="4">
+      <c r="F51" s="3">
         <f>SPMState!D6</f>
         <v>5</v>
       </c>
@@ -2098,19 +2095,19 @@
       <c r="B52" t="s">
         <v>64</v>
       </c>
-      <c r="C52" s="4" t="str">
+      <c r="C52" s="3" t="str">
         <f>SPMState!A7</f>
         <v>TEMP</v>
       </c>
-      <c r="D52" s="4">
+      <c r="D52" s="3">
         <f>SPMState!B7</f>
         <v>0</v>
       </c>
-      <c r="E52" s="4">
+      <c r="E52" s="3">
         <f>SPMState!C7</f>
         <v>5</v>
       </c>
-      <c r="F52" s="4">
+      <c r="F52" s="3">
         <f>SPMState!D7</f>
         <v>0</v>
       </c>
@@ -2127,19 +2124,19 @@
       <c r="B53" t="s">
         <v>64</v>
       </c>
-      <c r="C53" s="4" t="str">
+      <c r="C53" s="3" t="str">
         <f>SPMState!A8</f>
         <v>SPM</v>
       </c>
-      <c r="D53" s="4">
+      <c r="D53" s="3">
         <f>SPMState!B8</f>
         <v>4.9000000000000004</v>
       </c>
-      <c r="E53" s="4">
+      <c r="E53" s="3">
         <f>SPMState!C8</f>
         <v>5.0999999999999996</v>
       </c>
-      <c r="F53" s="4">
+      <c r="F53" s="3">
         <f>SPMState!D8</f>
         <v>5</v>
       </c>
@@ -2156,19 +2153,19 @@
       <c r="B54" t="s">
         <v>64</v>
       </c>
-      <c r="C54" s="4" t="str">
+      <c r="C54" s="3" t="str">
         <f>SPMState!A9</f>
         <v>PSU_FLT</v>
       </c>
-      <c r="D54" s="4">
+      <c r="D54" s="3">
         <f>SPMState!B9</f>
         <v>0</v>
       </c>
-      <c r="E54" s="4">
+      <c r="E54" s="3">
         <f>SPMState!C9</f>
         <v>0.5</v>
       </c>
-      <c r="F54" s="4">
+      <c r="F54" s="3">
         <f>SPMState!D9</f>
         <v>0</v>
       </c>
@@ -2185,19 +2182,19 @@
       <c r="B55" t="s">
         <v>64</v>
       </c>
-      <c r="C55" s="4" t="str">
+      <c r="C55" s="3" t="str">
         <f>SPMState!A10</f>
         <v>HVCAP</v>
       </c>
-      <c r="D55" s="4">
+      <c r="D55" s="3">
         <f>SPMState!B10</f>
         <v>235</v>
       </c>
-      <c r="E55" s="4">
+      <c r="E55" s="3">
         <f>SPMState!C10</f>
         <v>245</v>
       </c>
-      <c r="F55" s="4">
+      <c r="F55" s="3">
         <f>SPMState!D10</f>
         <v>240</v>
       </c>
@@ -2214,19 +2211,19 @@
       <c r="B56" t="s">
         <v>64</v>
       </c>
-      <c r="C56" s="4" t="str">
+      <c r="C56" s="3" t="str">
         <f>SPMState!A11</f>
         <v>TP5B</v>
       </c>
-      <c r="D56" s="4">
+      <c r="D56" s="3">
         <f>SPMState!B11</f>
         <v>235</v>
       </c>
-      <c r="E56" s="4">
+      <c r="E56" s="3">
         <f>SPMState!C11</f>
         <v>245</v>
       </c>
-      <c r="F56" s="4">
+      <c r="F56" s="3">
         <f>SPMState!D11</f>
         <v>240</v>
       </c>
@@ -2243,19 +2240,19 @@
       <c r="B57" t="s">
         <v>64</v>
       </c>
-      <c r="C57" s="4" t="str">
+      <c r="C57" s="3" t="str">
         <f>SPMState!A12</f>
         <v>TP1B</v>
       </c>
-      <c r="D57" s="4">
+      <c r="D57" s="3">
         <f>SPMState!B12</f>
         <v>799</v>
       </c>
-      <c r="E57" s="4">
+      <c r="E57" s="3">
         <f>SPMState!C12</f>
         <v>840</v>
       </c>
-      <c r="F57" s="4">
+      <c r="F57" s="3">
         <f>SPMState!D12</f>
         <v>800</v>
       </c>
@@ -2272,19 +2269,19 @@
       <c r="B58" t="s">
         <v>64</v>
       </c>
-      <c r="C58" s="4" t="str">
+      <c r="C58" s="3" t="str">
         <f>SPMState!A13</f>
         <v>TP6B</v>
       </c>
-      <c r="D58" s="4">
+      <c r="D58" s="3">
         <f>SPMState!B13</f>
         <v>15.5</v>
       </c>
-      <c r="E58" s="4">
+      <c r="E58" s="3">
         <f>SPMState!C13</f>
         <v>16.5</v>
       </c>
-      <c r="F58" s="4">
+      <c r="F58" s="3">
         <f>SPMState!D13</f>
         <v>16</v>
       </c>
@@ -2301,19 +2298,19 @@
       <c r="B59" t="s">
         <v>64</v>
       </c>
-      <c r="C59" s="4" t="str">
+      <c r="C59" s="3" t="str">
         <f>SPMState!A14</f>
         <v>TP2B</v>
       </c>
-      <c r="D59" s="4">
+      <c r="D59" s="3">
         <f>SPMState!B14</f>
         <v>23</v>
       </c>
-      <c r="E59" s="4">
+      <c r="E59" s="3">
         <f>SPMState!C14</f>
         <v>25</v>
       </c>
-      <c r="F59" s="4">
+      <c r="F59" s="3">
         <f>SPMState!D14</f>
         <v>24</v>
       </c>
@@ -2330,19 +2327,19 @@
       <c r="B60" t="s">
         <v>64</v>
       </c>
-      <c r="C60" s="4" t="str">
+      <c r="C60" s="3" t="str">
         <f>SPMState!A15</f>
         <v>BuckCurrent</v>
       </c>
-      <c r="D60" s="4">
+      <c r="D60" s="3">
         <f>SPMState!B15</f>
         <v>0</v>
       </c>
-      <c r="E60" s="4">
+      <c r="E60" s="3">
         <f>SPMState!C15</f>
         <v>0.1</v>
       </c>
-      <c r="F60" s="4">
+      <c r="F60" s="3">
         <f>SPMState!D15</f>
         <v>0</v>
       </c>
@@ -2359,19 +2356,19 @@
       <c r="B61" t="s">
         <v>64</v>
       </c>
-      <c r="C61" s="4" t="str">
+      <c r="C61" s="3" t="str">
         <f>SPMState!A16</f>
         <v>BuckEfficiency</v>
       </c>
-      <c r="D61" s="4">
+      <c r="D61" s="3">
         <f>SPMState!B16</f>
         <v>85</v>
       </c>
-      <c r="E61" s="4">
+      <c r="E61" s="3">
         <f>SPMState!C16</f>
         <v>100</v>
       </c>
-      <c r="F61" s="4">
+      <c r="F61" s="3">
         <f>SPMState!D16</f>
         <v>95</v>
       </c>
@@ -2393,7 +2390,7 @@
       </c>
       <c r="D62" s="3">
         <f>NoPowerState!B2</f>
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="E62" s="3">
         <f>NoPowerState!C2</f>
@@ -2422,7 +2419,7 @@
       </c>
       <c r="D63" s="3">
         <f>NoPowerState!B3</f>
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="E63" s="3">
         <f>NoPowerState!C3</f>
@@ -2451,7 +2448,7 @@
       </c>
       <c r="D64" s="3">
         <f>NoPowerState!B4</f>
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="E64" s="3">
         <f>NoPowerState!C4</f>
@@ -2480,7 +2477,7 @@
       </c>
       <c r="D65" s="3">
         <f>NoPowerState!B5</f>
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="E65" s="3">
         <f>NoPowerState!C5</f>
@@ -2509,7 +2506,7 @@
       </c>
       <c r="D66" s="3">
         <f>NoPowerState!B6</f>
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="E66" s="3">
         <f>NoPowerState!C6</f>
@@ -2538,7 +2535,7 @@
       </c>
       <c r="D67" s="3">
         <f>NoPowerState!B7</f>
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="E67" s="3">
         <f>NoPowerState!C7</f>
@@ -2567,7 +2564,7 @@
       </c>
       <c r="D68" s="3">
         <f>NoPowerState!B8</f>
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="E68" s="3">
         <f>NoPowerState!C8</f>
@@ -2596,7 +2593,7 @@
       </c>
       <c r="D69" s="3">
         <f>NoPowerState!B9</f>
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="E69" s="3">
         <f>NoPowerState!C9</f>
@@ -2625,7 +2622,7 @@
       </c>
       <c r="D70" s="3">
         <f>NoPowerState!B10</f>
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="E70" s="3">
         <f>NoPowerState!C10</f>
@@ -2654,7 +2651,7 @@
       </c>
       <c r="D71" s="3">
         <f>NoPowerState!B11</f>
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="E71" s="3">
         <f>NoPowerState!C11</f>
@@ -2683,7 +2680,7 @@
       </c>
       <c r="D72" s="3">
         <f>NoPowerState!B12</f>
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="E72" s="3">
         <f>NoPowerState!C12</f>
@@ -2712,7 +2709,7 @@
       </c>
       <c r="D73" s="3">
         <f>NoPowerState!B13</f>
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="E73" s="3">
         <f>NoPowerState!C13</f>
@@ -2741,7 +2738,7 @@
       </c>
       <c r="D74" s="3">
         <f>NoPowerState!B14</f>
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="E74" s="3">
         <f>NoPowerState!C14</f>
@@ -2770,7 +2767,7 @@
       </c>
       <c r="D75" s="3">
         <f>NoPowerState!B15</f>
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="E75" s="3">
         <f>NoPowerState!C15</f>
@@ -3432,7 +3429,7 @@
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3459,7 +3456,7 @@
         <v>44</v>
       </c>
       <c r="B2" s="3">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="C2" s="3">
         <v>0.5</v>
@@ -3476,7 +3473,7 @@
         <v>45</v>
       </c>
       <c r="B3" s="3">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="C3" s="3">
         <v>0.5</v>
@@ -3493,7 +3490,7 @@
         <v>46</v>
       </c>
       <c r="B4" s="3">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="C4" s="3">
         <v>0.5</v>
@@ -3510,7 +3507,7 @@
         <v>25</v>
       </c>
       <c r="B5" s="3">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="C5" s="3">
         <v>0.5</v>
@@ -3527,7 +3524,7 @@
         <v>48</v>
       </c>
       <c r="B6" s="3">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="C6" s="3">
         <v>0.5</v>
@@ -3544,7 +3541,7 @@
         <v>49</v>
       </c>
       <c r="B7" s="3">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="C7" s="3">
         <v>0.5</v>
@@ -3561,7 +3558,7 @@
         <v>50</v>
       </c>
       <c r="B8" s="3">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="C8" s="3">
         <v>0.5</v>
@@ -3578,7 +3575,7 @@
         <v>51</v>
       </c>
       <c r="B9" s="3">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="C9" s="3">
         <v>0.5</v>
@@ -3595,7 +3592,7 @@
         <v>47</v>
       </c>
       <c r="B10" s="3">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="C10" s="3">
         <v>0.5</v>
@@ -3612,7 +3609,7 @@
         <v>52</v>
       </c>
       <c r="B11" s="3">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="C11" s="3">
         <v>0.5</v>
@@ -3629,7 +3626,7 @@
         <v>53</v>
       </c>
       <c r="B12" s="3">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="C12" s="3">
         <v>0.5</v>
@@ -3646,7 +3643,7 @@
         <v>54</v>
       </c>
       <c r="B13" s="3">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="C13" s="3">
         <v>0.5</v>
@@ -3663,7 +3660,7 @@
         <v>55</v>
       </c>
       <c r="B14" s="3">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="C14" s="3">
         <v>0.5</v>
@@ -3680,7 +3677,7 @@
         <v>56</v>
       </c>
       <c r="B15" s="3">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="C15" s="3">
         <v>0.1</v>
